--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>ServerID</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +516,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -514,7 +526,8 @@
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="7" max="8" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -566,7 +579,7 @@
         <v>16001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -592,7 +605,7 @@
         <v>17001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -618,7 +631,7 @@
         <v>15001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -644,7 +657,7 @@
         <v>13001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
@@ -670,7 +683,7 @@
         <v>14001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>ServerID</t>
   </si>
@@ -92,25 +87,13 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -512,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -579,7 +562,7 @@
         <v>16001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -605,7 +588,7 @@
         <v>17001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -631,7 +614,7 @@
         <v>15001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,7 +640,7 @@
         <v>13001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
@@ -683,7 +666,7 @@
         <v>14001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>ServerID</t>
   </si>
@@ -87,13 +87,21 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameServer_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -495,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -669,14 +677,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>16002</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\NFrame_CPP\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>ServerID</t>
   </si>
@@ -39,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameServer_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,9 +62,6 @@
     <t>ProxyServer_1</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
     <t>MasterServer_1</t>
   </si>
   <si>
@@ -90,12 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameServer_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>192.168.1.113</t>
+  </si>
+  <si>
+    <t>192.168.1.114</t>
+  </si>
+  <si>
+    <t>192.168.1.115</t>
+  </si>
+  <si>
+    <t>192.168.1.116</t>
+  </si>
+  <si>
+    <t>192.168.1.117</t>
   </si>
 </sst>
 </file>
@@ -507,7 +512,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -517,6 +522,7 @@
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
@@ -544,18 +550,18 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -564,24 +570,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>16001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>5000</v>
@@ -590,24 +596,24 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>17001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>5000</v>
@@ -616,24 +622,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>15001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>5000</v>
@@ -642,24 +648,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>13001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5000</v>
@@ -668,40 +674,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3">
         <v>14001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>16002</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>ServerID</t>
   </si>
@@ -88,19 +88,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.113</t>
-  </si>
-  <si>
-    <t>192.168.1.114</t>
-  </si>
-  <si>
-    <t>192.168.1.115</t>
-  </si>
-  <si>
-    <t>192.168.1.116</t>
-  </si>
-  <si>
-    <t>192.168.1.117</t>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +501,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -596,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>17001</v>
@@ -622,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>15001</v>
@@ -648,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>13001</v>
@@ -674,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3">
         <v>14001</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\NFrame_CPP\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Property" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>ServerID</t>
   </si>
@@ -27,105 +25,477 @@
     <t>Name</t>
   </si>
   <si>
+    <t>MaxOnline</t>
+  </si>
+  <si>
+    <t>CpuCount</t>
+  </si>
+  <si>
     <t>IP</t>
   </si>
   <si>
     <t>Port</t>
   </si>
   <si>
-    <t>CpuCount</t>
-  </si>
-  <si>
-    <t>MaxOnline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>服务器ID</t>
+  </si>
+  <si>
+    <t>服务器名字</t>
+  </si>
+  <si>
+    <t>作为服务器时：服务器最大连接</t>
+  </si>
+  <si>
+    <t>CPU个数（机器）</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>作为服务器时：相对客户端的port</t>
+  </si>
+  <si>
+    <t>服务器类型</t>
   </si>
   <si>
     <t>GameServer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>WorldServer_1</t>
   </si>
   <si>
-    <t>WorldServer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>7</t>
   </si>
   <si>
     <t>ProxyServer_1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>MasterServer_1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>LoginServer_1</t>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,39 +503,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -215,71 +881,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,197 +1163,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>5000</v>
       </c>
-      <c r="E2">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
         <v>16001</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
         <v>5000</v>
       </c>
-      <c r="E3">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
         <v>17001</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>5000</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
         <v>15001</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>5000</v>
       </c>
-      <c r="E5">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
         <v>13001</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
+      <c r="H11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>5000</v>
       </c>
-      <c r="E6">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8">
         <v>14001</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F2:F6 F13:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,18 +133,47 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -153,14 +182,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,38 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,16 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +252,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +275,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,197 +317,311 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,26 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,24 +657,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,177 +703,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1283,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1183,196 +1298,196 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="b">
+      <c r="E3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="b">
+      <c r="F3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="b">
+      <c r="G3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="b">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="3" customFormat="1" ht="41.25" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D8">
@@ -1381,21 +1496,21 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G8">
         <v>16001</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
@@ -1407,21 +1522,21 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G9">
         <v>17001</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
@@ -1433,21 +1548,21 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G10">
         <v>15001</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
@@ -1459,24 +1574,24 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G11">
         <v>13001</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D12">
@@ -1485,13 +1600,13 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="14">
         <v>14001</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -120,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -146,73 +149,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,71 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,176 +504,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -550,6 +553,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -595,32 +611,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +641,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,20 +682,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,8 +722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,152 +732,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,9 +888,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,19 +902,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1280,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1299,59 +1331,59 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9" t="b">
@@ -1377,7 +1409,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="9" t="b">
@@ -1403,7 +1435,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="9" t="b">
@@ -1429,7 +1461,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9" t="b">
@@ -1454,67 +1486,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="41.25" spans="1:8">
+    <row r="7" s="3" customFormat="1" spans="1:8">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="41.25" spans="1:8">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>16001</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D9">
         <v>5000</v>
@@ -1522,25 +1554,25 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>16001</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="G9">
-        <v>17001</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>5000</v>
@@ -1548,25 +1580,25 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>15001</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>28</v>
+        <v>17001</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1574,25 +1606,25 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>13001</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>30</v>
+        <v>15001</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>31</v>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1600,19 +1632,46 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>13001</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="15">
         <v>14001</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
+      <c r="H13" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F2:F6 F13:F1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 F2:F6 F14:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -121,14 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,159 +154,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,194 +174,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -629,251 +299,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,58 +355,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1310,27 +696,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="41.25" spans="1:8">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1564,7 +950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1590,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +1061,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -129,13 +129,17 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -151,6 +155,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -356,13 +365,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,26 +709,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -742,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -768,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -794,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -820,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -898,67 +910,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="D9">
-        <v>5000</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>16001</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10">
         <v>5000</v>
@@ -970,21 +982,21 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -996,21 +1008,21 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>15001</v>
+        <v>17001</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1022,21 +1034,21 @@
         <v>25</v>
       </c>
       <c r="G12">
-        <v>13001</v>
+        <v>15001</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>32</v>
+      <c r="C13" t="s">
+        <v>30</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1047,17 +1059,44 @@
       <c r="F13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13">
+        <v>13001</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="15">
         <v>14001</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 F2:F6 F14:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F1048576 F9 F2:F6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -133,12 +133,33 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameServer</t>
+  </si>
+  <si>
+    <t>WorldServer</t>
+  </si>
+  <si>
+    <t>ProxyServer</t>
+  </si>
+  <si>
+    <t>MasterServer</t>
+  </si>
+  <si>
+    <t>LoginServer</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>区服</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +386,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -709,26 +730,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -753,8 +774,11 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -779,34 +803,40 @@
       <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -831,8 +861,11 @@
       <c r="H4" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -857,8 +890,11 @@
       <c r="H5" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -883,8 +919,11 @@
       <c r="H6" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -909,8 +948,11 @@
       <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -935,8 +977,11 @@
       <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -961,8 +1006,11 @@
       <c r="H9" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>5000</v>
@@ -987,8 +1035,11 @@
       <c r="H10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1013,8 +1064,11 @@
       <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1039,8 +1093,11 @@
       <c r="H12" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1065,8 +1122,11 @@
       <c r="H13" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1090,13 +1150,16 @@
       </c>
       <c r="H14" s="14" t="s">
         <v>33</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F1048576 F9 F2:F6 B7:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F1048576 F7:F9 G7:J8 F2 B7:E8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
